--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/居民最终消费.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/居民最终消费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,467 +528,278 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14862955.4502029</v>
+        <v>38984956.4376831</v>
       </c>
       <c r="C2" t="n">
-        <v>26413173.713551</v>
+        <v>219826984.497925</v>
       </c>
       <c r="D2" t="n">
-        <v>109555370.277075</v>
+        <v>121702382.249922</v>
       </c>
       <c r="E2" t="n">
-        <v>16897436.10809</v>
+        <v>33457266.6400797</v>
       </c>
       <c r="F2" t="n">
-        <v>443715476.461443</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1447144203.51023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12483648.1442386</v>
+      </c>
       <c r="H2" t="n">
-        <v>29869279.0896637</v>
+        <v>175739904.091955</v>
       </c>
       <c r="I2" t="n">
-        <v>34730720.6045971</v>
+        <v>164728468.664678</v>
       </c>
       <c r="J2" t="n">
-        <v>35153063.9579687</v>
+        <v>108621415.570359</v>
       </c>
       <c r="K2" t="n">
-        <v>3342678.79201132</v>
+        <v>13732224.3909635</v>
       </c>
       <c r="L2" t="n">
-        <v>7050030.74105209</v>
+        <v>46556713.1888791</v>
       </c>
       <c r="M2" t="n">
-        <v>34099173.4517472</v>
+        <v>87970162.0887354</v>
       </c>
       <c r="N2" t="n">
-        <v>16526832.2695501</v>
+        <v>75824339.1155784</v>
       </c>
       <c r="O2" t="n">
-        <v>1210627.665109</v>
+        <v>1365886.84001478</v>
       </c>
       <c r="P2" t="n">
-        <v>3750611.90289625</v>
+        <v>4864486.48092409</v>
       </c>
       <c r="Q2" t="n">
-        <v>14759476.5323308</v>
+        <v>59382663.5472791</v>
       </c>
       <c r="R2" t="n">
-        <v>7214661.25301819</v>
+        <v>3095005.38215971</v>
       </c>
       <c r="S2" t="n">
-        <v>88279384.6525794</v>
+        <v>278807696.178853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13269314.1139644</v>
+        <v>32532834.3839351</v>
       </c>
       <c r="C3" t="n">
-        <v>81567807.64634439</v>
+        <v>290030606.423452</v>
       </c>
       <c r="D3" t="n">
-        <v>104639936.979618</v>
+        <v>205860844.220043</v>
       </c>
       <c r="E3" t="n">
-        <v>14479682.0041988</v>
+        <v>59602940.0719257</v>
       </c>
       <c r="F3" t="n">
-        <v>525713000</v>
+        <v>1985367832.63875</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>54942532.5344258</v>
+        <v>217625786.777773</v>
       </c>
       <c r="I3" t="n">
-        <v>62691774.238616</v>
+        <v>242425895.772625</v>
       </c>
       <c r="J3" t="n">
-        <v>29523944.8327923</v>
+        <v>146458111.165642</v>
       </c>
       <c r="K3" t="n">
-        <v>2919227</v>
+        <v>36934001.0356724</v>
       </c>
       <c r="L3" t="n">
-        <v>12741727</v>
+        <v>35938156.6915652</v>
       </c>
       <c r="M3" t="n">
-        <v>32309735.8299328</v>
+        <v>110936161.305078</v>
       </c>
       <c r="N3" t="n">
-        <v>17707789.7363494</v>
+        <v>123326161.793462</v>
       </c>
       <c r="O3" t="n">
-        <v>2851623.57307379</v>
+        <v>1631933.40918244</v>
       </c>
       <c r="P3" t="n">
-        <v>3930922.9836425</v>
+        <v>4908608.77733989</v>
       </c>
       <c r="Q3" t="n">
-        <v>14803521.6886792</v>
+        <v>95884299.0064301</v>
       </c>
       <c r="R3" t="n">
-        <v>5598034.19995785</v>
+        <v>5061192.7667012</v>
       </c>
       <c r="S3" t="n">
-        <v>71735425.1271334</v>
+        <v>376210299.037923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17842764.8396826</v>
+        <v>82376868.7341349</v>
       </c>
       <c r="C4" t="n">
-        <v>106525010.854131</v>
+        <v>410624306.768013</v>
       </c>
       <c r="D4" t="n">
-        <v>104255470.618266</v>
+        <v>181021154.451358</v>
       </c>
       <c r="E4" t="n">
-        <v>20495149.8851541</v>
+        <v>85806546.9504519</v>
       </c>
       <c r="F4" t="n">
-        <v>712174900.096095</v>
+        <v>2659804775.95537</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>63285151.861415</v>
+        <v>358072214.408532</v>
       </c>
       <c r="I4" t="n">
-        <v>78892264.9964136</v>
+        <v>276841408.713995</v>
       </c>
       <c r="J4" t="n">
-        <v>50691758.2715726</v>
+        <v>255579968.796112</v>
       </c>
       <c r="K4" t="n">
-        <v>5699239.16562796</v>
+        <v>52932771.9073706</v>
       </c>
       <c r="L4" t="n">
-        <v>18372722.2185993</v>
+        <v>46031197.2851438</v>
       </c>
       <c r="M4" t="n">
-        <v>45863661.3792079</v>
+        <v>156951252.619588</v>
       </c>
       <c r="N4" t="n">
-        <v>48596449.8636321</v>
+        <v>145411771.601038</v>
       </c>
       <c r="O4" t="n">
-        <v>2377753.76294208</v>
+        <v>2654050.17378703</v>
       </c>
       <c r="P4" t="n">
-        <v>4555216.58176372</v>
+        <v>3815027.28385368</v>
       </c>
       <c r="Q4" t="n">
-        <v>34623100</v>
+        <v>162821189.726985</v>
       </c>
       <c r="R4" t="n">
-        <v>7601631.1430804</v>
+        <v>7157191.40300597</v>
       </c>
       <c r="S4" t="n">
-        <v>102497554.654607</v>
+        <v>431707855.132002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23212134.3538421</v>
+        <v>3796624.67992502</v>
       </c>
       <c r="C5" t="n">
-        <v>140298740.991693</v>
+        <v>727916074.547449</v>
       </c>
       <c r="D5" t="n">
-        <v>111560499.134676</v>
-      </c>
-      <c r="E5" t="n">
-        <v>23510405.9852136</v>
-      </c>
+        <v>262406860.441878</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>965526184.2654361</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9318748.277249999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>87877485.9302386</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134956976.733159</v>
-      </c>
+        <v>3204266882.6651</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>65620259.3100311</v>
+        <v>227390668.711037</v>
       </c>
       <c r="K5" t="n">
-        <v>10679885.3330534</v>
+        <v>115758378.861534</v>
       </c>
       <c r="L5" t="n">
-        <v>26750693.8770261</v>
+        <v>62021553.8441299</v>
       </c>
       <c r="M5" t="n">
-        <v>61137553.4328606</v>
-      </c>
-      <c r="N5" t="n">
-        <v>53910187.833493</v>
-      </c>
+        <v>143149525.773942</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1477904.65732192</v>
+        <v>1351020.70698849</v>
       </c>
       <c r="P5" t="n">
-        <v>4108598.70462508</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>41430416.3303931</v>
-      </c>
+        <v>5449976.98152127</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>2796629.32074359</v>
+        <v>5033270.03267424</v>
       </c>
       <c r="S5" t="n">
-        <v>166879064.059816</v>
+        <v>624174972.129483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38984956.4376831</v>
+        <v>4554576.12250768</v>
       </c>
       <c r="C6" t="n">
-        <v>219826984.497925</v>
+        <v>841651090.814226</v>
       </c>
       <c r="D6" t="n">
-        <v>121702382.249922</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33457266.6400797</v>
-      </c>
+        <v>330800455.825737</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1447144203.51023</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12483648.1442386</v>
-      </c>
-      <c r="H6" t="n">
-        <v>175739904.091955</v>
-      </c>
-      <c r="I6" t="n">
-        <v>164728468.664678</v>
-      </c>
+        <v>3840083149.58612</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>108621415.570359</v>
+        <v>276123836.16857</v>
       </c>
       <c r="K6" t="n">
-        <v>13732224.3909635</v>
+        <v>126886993.017075</v>
       </c>
       <c r="L6" t="n">
-        <v>46556713.1888791</v>
+        <v>116095264.790195</v>
       </c>
       <c r="M6" t="n">
-        <v>87970162.0887354</v>
-      </c>
-      <c r="N6" t="n">
-        <v>75824339.1155784</v>
-      </c>
+        <v>131207526.795881</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>1365886.84001478</v>
+        <v>1222279.57958158</v>
       </c>
       <c r="P6" t="n">
-        <v>4864486.48092409</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>59382663.5472791</v>
-      </c>
+        <v>4880487.07462051</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>3095005.38215971</v>
+        <v>5486655.16723377</v>
       </c>
       <c r="S6" t="n">
-        <v>278807696.178853</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>32532834.3839351</v>
-      </c>
-      <c r="C7" t="n">
-        <v>290030606.423452</v>
-      </c>
-      <c r="D7" t="n">
-        <v>205860844.220043</v>
-      </c>
-      <c r="E7" t="n">
-        <v>59602940.0719257</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1985367832.63875</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>217625786.777773</v>
-      </c>
-      <c r="I7" t="n">
-        <v>242425895.772625</v>
-      </c>
-      <c r="J7" t="n">
-        <v>146458111.165642</v>
-      </c>
-      <c r="K7" t="n">
-        <v>36934001.0356724</v>
-      </c>
-      <c r="L7" t="n">
-        <v>35938156.6915652</v>
-      </c>
-      <c r="M7" t="n">
-        <v>110936161.305078</v>
-      </c>
-      <c r="N7" t="n">
-        <v>123326161.793462</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1631933.40918244</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4908608.77733989</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>95884299.0064301</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5061192.7667012</v>
-      </c>
-      <c r="S7" t="n">
-        <v>376210299.037923</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>82376868.7341349</v>
-      </c>
-      <c r="C8" t="n">
-        <v>410624306.768013</v>
-      </c>
-      <c r="D8" t="n">
-        <v>181021154.451358</v>
-      </c>
-      <c r="E8" t="n">
-        <v>85806546.9504519</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2659804775.95537</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>358072214.408532</v>
-      </c>
-      <c r="I8" t="n">
-        <v>276841408.713995</v>
-      </c>
-      <c r="J8" t="n">
-        <v>255579968.796112</v>
-      </c>
-      <c r="K8" t="n">
-        <v>52932771.9073706</v>
-      </c>
-      <c r="L8" t="n">
-        <v>46031197.2851438</v>
-      </c>
-      <c r="M8" t="n">
-        <v>156951252.619588</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145411771.601038</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2654050.17378703</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3815027.28385368</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>162821189.726985</v>
-      </c>
-      <c r="R8" t="n">
-        <v>7157191.40300597</v>
-      </c>
-      <c r="S8" t="n">
-        <v>431707855.132002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3796624.67992502</v>
-      </c>
-      <c r="C9" t="n">
-        <v>727916074.547449</v>
-      </c>
-      <c r="D9" t="n">
-        <v>262406860.441878</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>3204266882.6651</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>227390668.711037</v>
-      </c>
-      <c r="K9" t="n">
-        <v>115758378.861534</v>
-      </c>
-      <c r="L9" t="n">
-        <v>62021553.8441299</v>
-      </c>
-      <c r="M9" t="n">
-        <v>143149525.773942</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>1351020.70698849</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5449976.98152127</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>5033270.03267424</v>
-      </c>
-      <c r="S9" t="n">
-        <v>624174972.129483</v>
+        <v>608515165.754948</v>
       </c>
     </row>
   </sheetData>
